--- a/activity/SIGE_P1.xlsx
+++ b/activity/SIGE_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D186054-22DB-471D-B33D-3E4E01918C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BBE55C-3351-4DCE-A49F-78A389A73C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11438" yWindow="0" windowWidth="11684" windowHeight="13763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="135">
   <si>
     <t>Componente / Actividad</t>
   </si>
   <si>
-    <t>Generales: portada, tabla de contenido, listado de ilustraciones, listado de tablas</t>
-  </si>
-  <si>
     <t>Listado de anexos</t>
   </si>
   <si>
@@ -65,27 +62,9 @@
     <t>D. Carpeta de datos</t>
   </si>
   <si>
-    <t>1. Reseña municipal e histórica</t>
-  </si>
-  <si>
-    <t>1.2. Localización geográfica</t>
-  </si>
-  <si>
     <t>1.3. Principales actividades económicas</t>
   </si>
   <si>
-    <t>1.4. Topografía general de la zona</t>
-  </si>
-  <si>
-    <t>1.5. Mapas de referencia</t>
-  </si>
-  <si>
-    <t>2. Censos poblacionales</t>
-  </si>
-  <si>
-    <t>2.1. Histórico de censos poblacionales DANE</t>
-  </si>
-  <si>
     <t>General</t>
   </si>
   <si>
@@ -98,9 +77,6 @@
     <t>Por centro poblado</t>
   </si>
   <si>
-    <t>2.3. Histórico de potencial electoral</t>
-  </si>
-  <si>
     <t>3. Ordenamiento territorial - POT - Conceptos</t>
   </si>
   <si>
@@ -182,21 +158,6 @@
     <t>Archivos almacenados en directorios correspondientes</t>
   </si>
   <si>
-    <t>Sin rango de elevaciones o cotas</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps</t>
-  </si>
-  <si>
-    <t>https://www.bing.com/maps</t>
-  </si>
-  <si>
-    <t>https://www.openstreetmap.org</t>
-  </si>
-  <si>
-    <t>https://earth.google.com</t>
-  </si>
-  <si>
     <t>Mapas no cubren la totalidad del municipio, solo mostraron dos tipos de vista, mapa Tracetrack muestra Colombia y no el municipio.</t>
   </si>
   <si>
@@ -266,9 +227,6 @@
     <t>Falto la producción de sal.</t>
   </si>
   <si>
-    <t>Sin rango de elevaciones o cotas solo para el municipio en análisis. Título de ilustración no corresponde a veredas.</t>
-  </si>
-  <si>
     <t>Solo realizaron una descripción general y no presentan  mapas de detalle con cubrimiento a la zona de estudio</t>
   </si>
   <si>
@@ -326,9 +284,6 @@
     <t>Grupo 3</t>
   </si>
   <si>
-    <t>Sin rango de elevaciones o cotas solo para el municipio en análisis cubriendo toda la extensión del municipio.</t>
-  </si>
-  <si>
     <t>Sin descripción de elementos que pueden ser consultados y tipos de mapas</t>
   </si>
   <si>
@@ -338,9 +293,6 @@
     <t>6 censos encontrados</t>
   </si>
   <si>
-    <t>2.4. Proyección de población 2024 a 2034 (exponencial, lineal, logarítmica, polinómica y potencial)</t>
-  </si>
-  <si>
     <t>Sin listados de normativa</t>
   </si>
   <si>
@@ -368,9 +320,6 @@
     <t>La asignatura es "Sistemas de Información Geográfica - SIGE". Sin numeración de página</t>
   </si>
   <si>
-    <t>Sin rango de elevaciones o cotas solo para el municipio en análisis cubriendo toda la extensión del municipio. Ilustración sin rango de elevaciones.</t>
-  </si>
-  <si>
     <t>Tipos de mapas visibles en panel derecho</t>
   </si>
   <si>
@@ -432,9 +381,6 @@
   </si>
   <si>
     <t>Incluido como rural</t>
-  </si>
-  <si>
-    <t>2.2. Histórico de población beneficiaria SISBEN</t>
   </si>
   <si>
     <r>
@@ -474,12 +420,82 @@
   <si>
     <t>Calificación Avance P1 proyecto final</t>
   </si>
+  <si>
+    <t>Generales: portada (indicando el caso de estudio, número de avance, nombre del módulo, fecha de presentación, nombres completos de los integrantes), numeración de páginas, tabla de contenido, lista de tablas, lista de ilustraciones, introducción, objetivo general, capítulos por cada ítem solicitado, conclusiones.</t>
+  </si>
+  <si>
+    <t>1.2. Localización geográfica y topografía</t>
+  </si>
+  <si>
+    <t>1.4. Mapas de referencia</t>
+  </si>
+  <si>
+    <t>1.4.1. Colombia en Mapas</t>
+  </si>
+  <si>
+    <t>1.4.2. Mapas disponibles en Google Maps y Google Earth</t>
+  </si>
+  <si>
+    <t>1.4.3. Mapas disponibles en Microsoft Bing Maps</t>
+  </si>
+  <si>
+    <t>1.4.4. Mapas disponible en OpenStreet</t>
+  </si>
+  <si>
+    <t>1.4.5. Otras plataformas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Reseña histórica y geográfica municipal del caso de estudio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/StudyCaseHistory/Readme.md</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Estudio poblacional: censos y proyecciones </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/Population/Readme.md</t>
+    </r>
+  </si>
+  <si>
+    <t>2.1. Departamento Administrativo Nacional de Estadística - DANE</t>
+  </si>
+  <si>
+    <t>2.2. Sistema de Identificación de Potenciales Beneficiarios de Programas Sociales - SISBEN</t>
+  </si>
+  <si>
+    <t>2.3. Registraduría Nacional del Estado Civil</t>
+  </si>
+  <si>
+    <t>2.5. Identifique las principales dinámicas poblacionales de la zona de estudio de su proyecto, e indique cual puede ser su relación con el desarrollo y ordenamiento territorial local.</t>
+  </si>
+  <si>
+    <t>Por grupos etarios (solo para un año censal específico)</t>
+  </si>
+  <si>
+    <t>Por género (solo para un año censal específico)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,6 +530,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
@@ -1048,13 +1070,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L63"/>
+  <dimension ref="B2:L65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1076,7 +1098,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
@@ -1084,78 +1106,78 @@
         <v>0</v>
       </c>
       <c r="C3" s="6">
-        <f>SUM(C5:C63)</f>
-        <v>64</v>
+        <f>SUM(C5:C65)</f>
+        <v>63.75</v>
       </c>
       <c r="D3" s="7">
-        <f>SUM(D5:D63)</f>
-        <v>47</v>
+        <f>SUM(D5:D65)</f>
+        <v>46.75</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F3" s="18" t="str">
-        <f>_xlfn.CONCAT(SUM(E5:E63)," de ",$D$3, " puntos")</f>
-        <v>36.73 de 47 puntos</v>
+        <f>_xlfn.CONCAT(SUM(E5:E65)," de ",$D$3, " puntos")</f>
+        <v>36.08 de 46.75 puntos</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H3" s="18" t="str">
-        <f>_xlfn.CONCAT(SUM(G5:G63)," de ",$D$3, " puntos")</f>
-        <v>37.875 de 47 puntos</v>
+        <f>_xlfn.CONCAT(SUM(G5:G65)," de ",$D$3, " puntos")</f>
+        <v>38.1 de 46.75 puntos</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J3" s="18" t="str">
-        <f>_xlfn.CONCAT(SUM(I5:I63)," de ",$D$3, " puntos")</f>
-        <v>31.13 de 47 puntos</v>
+        <f>_xlfn.CONCAT(SUM(I5:I65)," de ",$D$3, " puntos")</f>
+        <v>30.655 de 46.75 puntos</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="L3" s="18" t="str">
-        <f>_xlfn.CONCAT(SUM(K5:K63)," de ",$D$3, " puntos")</f>
-        <v>35.3 de 47 puntos</v>
+        <f>_xlfn.CONCAT(SUM(K5:K65)," de ",$D$3, " puntos")</f>
+        <v>35.15 de 46.75 puntos</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="33" x14ac:dyDescent="0.45">
       <c r="B4" s="30"/>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B5" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="str">
@@ -1171,45 +1193,45 @@
       <c r="K5" s="21"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="2:12" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12" ht="82.5" x14ac:dyDescent="0.45">
       <c r="B6" s="11" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6" s="10">
-        <f t="shared" ref="D6:D61" si="0">IF(ISBLANK(E6),"",C6)</f>
+        <f t="shared" ref="D6:D63" si="0">IF(ISBLANK(E6),"",C6)</f>
         <v>3</v>
       </c>
       <c r="E6" s="24">
         <v>2.85</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="G6" s="24">
         <v>2.95</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I6" s="24">
         <v>2.75</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K6" s="24">
         <v>2.9</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="10" t="str">
@@ -1227,7 +1249,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="12" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -1255,7 +1277,7 @@
     </row>
     <row r="9" spans="2:12" ht="33" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -1280,12 +1302,12 @@
         <v>0.95</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -1302,7 +1324,7 @@
         <v>0.75</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I10" s="21">
         <v>1</v>
@@ -1313,63 +1335,63 @@
       </c>
       <c r="L10" s="23"/>
     </row>
-    <row r="11" spans="2:12" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E11" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="10" t="str">
+        <v>121</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="2:12" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" ref="D12" si="1">IF(ISBLANK(E12),"",C12)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B13" s="13" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="C13" s="4">
         <v>0.25</v>
@@ -1382,30 +1404,30 @@
         <v>0.125</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G13" s="24">
         <v>0.625</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I13" s="24">
         <v>0</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K13" s="25">
         <v>0.25</v>
       </c>
       <c r="L13" s="28" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="13" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="C14" s="4">
         <v>0.25</v>
@@ -1418,30 +1440,30 @@
         <v>0</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G14" s="24">
         <v>0</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I14" s="24">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="K14" s="25">
         <v>0.25</v>
       </c>
       <c r="L14" s="28" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="13" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="C15" s="4">
         <v>0.25</v>
@@ -1454,66 +1476,66 @@
         <v>0.125</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G15" s="24">
         <v>0</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I15" s="24">
         <v>0</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K15" s="25">
         <v>0.25</v>
       </c>
       <c r="L15" s="28" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B16" s="13" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="C16" s="4">
         <v>0.25</v>
       </c>
       <c r="D16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D16" si="2">IF(ISBLANK(E16),"",C16)</f>
         <v>0.25</v>
       </c>
       <c r="E16" s="24">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G16" s="24">
         <v>0</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I16" s="24">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="K16" s="24">
-        <v>0</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+      <c r="K16" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B17" s="11" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="10" t="str">
@@ -1531,7 +1553,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="12" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="10" t="str">
@@ -1549,7 +1571,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C19" s="4">
         <v>0.25</v>
@@ -1562,30 +1584,30 @@
         <v>0.25</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G19" s="21">
         <v>0.25</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="I19" s="21">
         <v>0.25</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K19" s="24">
         <v>0.125</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="33" x14ac:dyDescent="0.45">
       <c r="B20" s="13" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C20" s="4">
         <v>0.25</v>
@@ -1598,30 +1620,30 @@
         <v>0</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G20" s="25">
         <v>0.25</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I20" s="25">
         <v>0.25</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="K20" s="24">
         <v>0.125</v>
       </c>
       <c r="L20" s="28" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="33" x14ac:dyDescent="0.45">
       <c r="B21" s="13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4">
         <v>0.25</v>
@@ -1634,30 +1656,30 @@
         <v>0</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G21" s="25">
         <v>0.25</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I21" s="25">
         <v>0.25</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K21" s="24">
         <v>0.125</v>
       </c>
       <c r="L21" s="28" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="33" x14ac:dyDescent="0.45">
       <c r="B22" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C22" s="4">
         <v>0.25</v>
@@ -1670,220 +1692,228 @@
         <v>0</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G22" s="25">
         <v>0.25</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="I22" s="25">
         <v>0.25</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="K22" s="24">
         <v>0.125</v>
       </c>
       <c r="L22" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="33" x14ac:dyDescent="0.45">
+      <c r="B23" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" ref="D23" si="3">IF(ISBLANK(E23),"",C23)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E23" s="24">
+        <v>0</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="33" x14ac:dyDescent="0.45">
+      <c r="B24" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" ref="D24" si="4">IF(ISBLANK(E24),"",C24)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="33" x14ac:dyDescent="0.45">
+      <c r="B25" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="25">
+        <v>1</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="25">
+        <v>0</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="25">
+        <v>1</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="99" x14ac:dyDescent="0.45">
+      <c r="B27" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="F27" s="22" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B23" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E23" s="24">
+      <c r="G27" s="24">
         <v>0.4</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="25">
-        <v>1</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="25">
-        <v>0</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E24" s="24">
+      <c r="H27" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="24">
         <v>0.4</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="25">
-        <v>1</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" s="25">
-        <v>0</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24" s="25">
-        <v>1</v>
-      </c>
-      <c r="L24" s="28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="99" x14ac:dyDescent="0.45">
-      <c r="B25" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E25" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="24">
-        <v>0.4</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="24">
-        <v>0.4</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="K25" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="L25" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B26" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E27" s="21">
-        <v>1</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" s="24">
-        <v>0.5</v>
       </c>
       <c r="J27" s="23" t="s">
         <v>101</v>
       </c>
       <c r="K27" s="24">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="33" x14ac:dyDescent="0.45">
-      <c r="B28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E28" s="21">
-        <v>1</v>
-      </c>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E28" s="21"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="21">
-        <v>1</v>
-      </c>
+      <c r="G28" s="21"/>
       <c r="H28" s="22"/>
-      <c r="I28" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="K28" s="21">
-        <v>1</v>
-      </c>
-      <c r="L28" s="23"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B29" s="12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -1896,22 +1926,28 @@
         <v>1</v>
       </c>
       <c r="F29" s="22"/>
-      <c r="G29" s="21">
-        <v>1</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="21">
-        <v>1</v>
-      </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="21">
-        <v>1</v>
-      </c>
-      <c r="L29" s="22"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G29" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="33" x14ac:dyDescent="0.45">
       <c r="B30" s="12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -1928,18 +1964,20 @@
         <v>1</v>
       </c>
       <c r="H30" s="22"/>
-      <c r="I30" s="21">
-        <v>1</v>
-      </c>
-      <c r="J30" s="22"/>
+      <c r="I30" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>86</v>
+      </c>
       <c r="K30" s="21">
         <v>1</v>
       </c>
-      <c r="L30" s="22"/>
+      <c r="L30" s="23"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B31" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -1955,19 +1993,19 @@
       <c r="G31" s="21">
         <v>1</v>
       </c>
-      <c r="H31" s="23"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="21">
         <v>1</v>
       </c>
-      <c r="J31" s="23"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="21">
         <v>1</v>
       </c>
-      <c r="L31" s="23"/>
-    </row>
-    <row r="32" spans="2:12" ht="33" x14ac:dyDescent="0.45">
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -1988,34 +2026,42 @@
         <v>1</v>
       </c>
       <c r="J32" s="22"/>
-      <c r="K32" s="24">
-        <v>0</v>
-      </c>
-      <c r="L32" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="K32" s="21">
+        <v>1</v>
+      </c>
+      <c r="L32" s="22"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B33" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E33" s="21"/>
+      <c r="B33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="21">
+        <v>1</v>
+      </c>
       <c r="F33" s="22"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="22"/>
+      <c r="G33" s="21">
+        <v>1</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" s="21">
+        <v>1</v>
+      </c>
+      <c r="J33" s="23"/>
+      <c r="K33" s="21">
+        <v>1</v>
+      </c>
+      <c r="L33" s="23"/>
     </row>
     <row r="34" spans="2:12" ht="33" x14ac:dyDescent="0.45">
       <c r="B34" s="12" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -2024,68 +2070,46 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E34" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="I34" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="J34" s="23" t="s">
-        <v>103</v>
-      </c>
+      <c r="E34" s="21">
+        <v>1</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="21">
+        <v>1</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="21">
+        <v>1</v>
+      </c>
+      <c r="J34" s="22"/>
       <c r="K34" s="24">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="33" x14ac:dyDescent="0.45">
-      <c r="B35" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="4">
-        <v>1</v>
-      </c>
-      <c r="D35" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E35" s="21">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E35" s="21"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I35" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="J35" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="K35" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="L35" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22"/>
+    </row>
+    <row r="36" spans="2:12" ht="33" x14ac:dyDescent="0.45">
       <c r="B36" s="12" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -2098,30 +2122,30 @@
         <v>0.9</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G36" s="24">
         <v>0.9</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="I36" s="24">
         <v>0.5</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="K36" s="24">
         <v>0.9</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="33" x14ac:dyDescent="0.45">
       <c r="B37" s="12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -2130,30 +2154,32 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E37" s="25">
-        <v>1</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="25">
-        <v>1</v>
-      </c>
-      <c r="H37" s="23"/>
+      <c r="E37" s="21">
+        <v>1</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="I37" s="24">
         <v>0.5</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="K37" s="24">
         <v>0.5</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="33" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B38" s="12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -2166,30 +2192,30 @@
         <v>0.9</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G38" s="24">
         <v>0.9</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="I38" s="24">
         <v>0.5</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="K38" s="24">
         <v>0.9</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B39" s="12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C39" s="4">
         <v>1</v>
@@ -2198,34 +2224,30 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E39" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>59</v>
-      </c>
+      <c r="E39" s="25">
+        <v>1</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="25">
+        <v>1</v>
+      </c>
+      <c r="H39" s="23"/>
       <c r="I39" s="24">
         <v>0.5</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="K39" s="24">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="33" x14ac:dyDescent="0.45">
       <c r="B40" s="12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C40" s="4">
         <v>1</v>
@@ -2238,30 +2260,30 @@
         <v>0.9</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G40" s="24">
         <v>0.9</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I40" s="24">
         <v>0.5</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="K40" s="24">
         <v>0.9</v>
       </c>
       <c r="L40" s="23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="33" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B41" s="12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -2274,30 +2296,30 @@
         <v>0.9</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G41" s="24">
         <v>0.9</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I41" s="24">
         <v>0.5</v>
       </c>
       <c r="J41" s="23" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="K41" s="24">
         <v>0.9</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="33" x14ac:dyDescent="0.45">
       <c r="B42" s="12" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C42" s="4">
         <v>1</v>
@@ -2310,30 +2332,30 @@
         <v>0.9</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G42" s="24">
         <v>0.9</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I42" s="24">
         <v>0.5</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="K42" s="24">
         <v>0.9</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="49.5" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="33" x14ac:dyDescent="0.45">
       <c r="B43" s="12" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
@@ -2346,30 +2368,30 @@
         <v>0.9</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G43" s="24">
         <v>0.9</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I43" s="24">
         <v>0.5</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="K43" s="24">
         <v>0.9</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B44" s="12" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
@@ -2378,152 +2400,152 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E44" s="21">
-        <v>1</v>
-      </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="21">
-        <v>1</v>
-      </c>
-      <c r="H44" s="22"/>
-      <c r="I44" s="21">
-        <v>1</v>
-      </c>
-      <c r="J44" s="22"/>
-      <c r="K44" s="21">
-        <v>1</v>
-      </c>
-      <c r="L44" s="22"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B45" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="10" t="str">
+      <c r="E44" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="J44" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="K44" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="L44" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B45" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="K45" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="L45" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B46" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="21">
+        <v>1</v>
+      </c>
+      <c r="F46" s="22"/>
+      <c r="G46" s="21">
+        <v>1</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="21">
+        <v>1</v>
+      </c>
+      <c r="J46" s="22"/>
+      <c r="K46" s="21">
+        <v>1</v>
+      </c>
+      <c r="L46" s="22"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B47" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="22"/>
-    </row>
-    <row r="46" spans="2:12" ht="49.5" x14ac:dyDescent="0.45">
-      <c r="B46" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="4">
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="22"/>
+    </row>
+    <row r="48" spans="2:12" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B48" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="4">
         <v>8</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D48" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E48" s="24">
         <v>6</v>
       </c>
-      <c r="F46" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46" s="24">
+      <c r="F48" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="24">
         <v>6</v>
       </c>
-      <c r="H46" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I46" s="24">
+      <c r="H48" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" s="24">
         <v>6</v>
       </c>
-      <c r="J46" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="K46" s="24">
+      <c r="J48" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="K48" s="24">
         <v>6</v>
       </c>
-      <c r="L46" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="49.5" x14ac:dyDescent="0.45">
-      <c r="B47" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="4">
-        <v>2</v>
-      </c>
-      <c r="D47" s="10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E47" s="24">
-        <v>0</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="24">
-        <v>0</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="I47" s="24">
-        <v>0</v>
-      </c>
-      <c r="J47" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K47" s="24">
-        <v>0</v>
-      </c>
-      <c r="L47" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B48" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="4">
-        <v>1</v>
-      </c>
-      <c r="D48" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E48" s="24">
-        <v>0</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G48" s="24">
-        <v>0</v>
-      </c>
-      <c r="H48" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48" s="24">
-        <v>0</v>
-      </c>
-      <c r="J48" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K48" s="24">
-        <v>0</v>
-      </c>
       <c r="L48" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B49" s="11" t="s">
-        <v>3</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B49" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="C49" s="4">
         <v>2</v>
@@ -2533,108 +2555,124 @@
         <v>2</v>
       </c>
       <c r="E49" s="24">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G49" s="24">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="I49" s="25">
-        <v>2</v>
-      </c>
-      <c r="J49" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="I49" s="24">
+        <v>0</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="K49" s="24">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B50" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="22"/>
+      <c r="B50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E50" s="24">
+        <v>0</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="24">
+        <v>0</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="24">
+        <v>0</v>
+      </c>
+      <c r="J50" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K50" s="24">
+        <v>0</v>
+      </c>
+      <c r="L50" s="23" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B51" s="11" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="C51" s="4">
-        <v>1</v>
-      </c>
-      <c r="D51" s="10" t="str">
+        <v>2</v>
+      </c>
+      <c r="D51" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E51" s="24">
+        <v>1.6</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="25">
+        <v>2</v>
+      </c>
+      <c r="J51" s="23"/>
+      <c r="K51" s="24">
+        <v>1.75</v>
+      </c>
+      <c r="L51" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B52" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G51" s="21"/>
-      <c r="H51" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I51" s="21"/>
-      <c r="J51" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="K51" s="21"/>
-      <c r="L51" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B52" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="4">
-        <v>3</v>
-      </c>
-      <c r="D52" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="E52" s="21"/>
-      <c r="F52" s="22" t="s">
-        <v>65</v>
-      </c>
+      <c r="F52" s="22"/>
       <c r="G52" s="21"/>
-      <c r="H52" s="22" t="s">
-        <v>65</v>
-      </c>
+      <c r="H52" s="22"/>
       <c r="I52" s="21"/>
-      <c r="J52" s="22" t="s">
-        <v>65</v>
-      </c>
+      <c r="J52" s="22"/>
       <c r="K52" s="21"/>
-      <c r="L52" s="22" t="s">
-        <v>65</v>
-      </c>
+      <c r="L52" s="22"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B53" s="11" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="C53" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D53" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2642,24 +2680,24 @@
       </c>
       <c r="E53" s="21"/>
       <c r="F53" s="22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K53" s="21"/>
       <c r="L53" s="22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C54" s="4">
         <v>3</v>
@@ -2670,45 +2708,55 @@
       </c>
       <c r="E54" s="21"/>
       <c r="F54" s="22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I54" s="21"/>
       <c r="J54" s="22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K54" s="21"/>
       <c r="L54" s="22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="5"/>
+      <c r="B55" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="4">
+        <v>3</v>
+      </c>
       <c r="D55" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E55" s="21"/>
-      <c r="F55" s="22"/>
+      <c r="F55" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="G55" s="21"/>
-      <c r="H55" s="22"/>
+      <c r="H55" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="I55" s="21"/>
-      <c r="J55" s="22"/>
+      <c r="J55" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="K55" s="21"/>
-      <c r="L55" s="22"/>
+      <c r="L55" s="22" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B56" s="11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C56" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2716,55 +2764,45 @@
       </c>
       <c r="E56" s="21"/>
       <c r="F56" s="22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G56" s="21"/>
       <c r="H56" s="22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K56" s="21"/>
       <c r="L56" s="22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B57" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57" s="4">
-        <v>1</v>
-      </c>
+      <c r="B57" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="5"/>
       <c r="D57" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E57" s="21"/>
-      <c r="F57" s="22" t="s">
-        <v>65</v>
-      </c>
+      <c r="F57" s="22"/>
       <c r="G57" s="21"/>
-      <c r="H57" s="22" t="s">
-        <v>65</v>
-      </c>
+      <c r="H57" s="22"/>
       <c r="I57" s="21"/>
-      <c r="J57" s="22" t="s">
-        <v>65</v>
-      </c>
+      <c r="J57" s="22"/>
       <c r="K57" s="21"/>
-      <c r="L57" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" ht="33" x14ac:dyDescent="0.45">
+      <c r="L57" s="22"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B58" s="11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C58" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D58" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2772,158 +2810,215 @@
       </c>
       <c r="E58" s="21"/>
       <c r="F58" s="22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I58" s="21"/>
       <c r="J58" s="22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K58" s="21"/>
       <c r="L58" s="22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B59" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="5"/>
+      <c r="B59" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
       <c r="D59" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E59" s="21"/>
-      <c r="F59" s="22"/>
+      <c r="F59" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="G59" s="21"/>
-      <c r="H59" s="22"/>
+      <c r="H59" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="I59" s="21"/>
-      <c r="J59" s="22"/>
+      <c r="J59" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="K59" s="21"/>
-      <c r="L59" s="22"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="L59" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" ht="33" x14ac:dyDescent="0.45">
       <c r="B60" s="11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C60" s="4">
+        <v>5</v>
+      </c>
+      <c r="D60" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E60" s="21"/>
+      <c r="F60" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="21"/>
+      <c r="H60" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I60" s="21"/>
+      <c r="J60" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K60" s="21"/>
+      <c r="L60" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B61" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E61" s="21"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="22"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B62" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="4">
         <v>3</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D62" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E62" s="21">
         <v>3</v>
       </c>
-      <c r="F60" s="22"/>
-      <c r="G60" s="21">
+      <c r="F62" s="22"/>
+      <c r="G62" s="21">
         <v>3</v>
       </c>
-      <c r="H60" s="22"/>
-      <c r="I60" s="21">
+      <c r="H62" s="22"/>
+      <c r="I62" s="21">
         <v>3</v>
       </c>
-      <c r="J60" s="22"/>
-      <c r="K60" s="21">
+      <c r="J62" s="22"/>
+      <c r="K62" s="21">
         <v>3</v>
       </c>
-      <c r="L60" s="22"/>
-    </row>
-    <row r="61" spans="2:12" ht="49.5" x14ac:dyDescent="0.45">
-      <c r="B61" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="4">
-        <v>1</v>
-      </c>
-      <c r="D61" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E61" s="24">
+      <c r="L62" s="22"/>
+    </row>
+    <row r="63" spans="2:12" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B63" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E63" s="24">
         <v>0.33</v>
       </c>
-      <c r="F61" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G61" s="24">
+      <c r="F63" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G63" s="24">
         <v>0</v>
       </c>
-      <c r="H61" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I61" s="24">
+      <c r="H63" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63" s="24">
         <v>0.33</v>
       </c>
-      <c r="J61" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="K61" s="24">
+      <c r="J63" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="K63" s="24">
         <v>0</v>
       </c>
-      <c r="L61" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" ht="33" x14ac:dyDescent="0.45">
-      <c r="B62" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="4">
-        <v>1</v>
-      </c>
-      <c r="D62" s="10">
-        <v>1</v>
-      </c>
-      <c r="E62" s="24">
+      <c r="L63" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" ht="33" x14ac:dyDescent="0.45">
+      <c r="B64" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1</v>
+      </c>
+      <c r="D64" s="10">
+        <v>1</v>
+      </c>
+      <c r="E64" s="24">
         <v>0.75</v>
       </c>
-      <c r="F62" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G62" s="24">
+      <c r="F64" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" s="24">
         <v>0.75</v>
       </c>
-      <c r="H62" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="I62" s="24">
+      <c r="H64" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I64" s="24">
         <v>0.9</v>
       </c>
-      <c r="J62" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="K62" s="24">
+      <c r="J64" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="K64" s="24">
         <v>0.9</v>
       </c>
-      <c r="L62" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B63" s="14"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="16" t="str">
-        <f>IF(ISBLANK(E63),"",C63)</f>
+      <c r="L64" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16" t="str">
+        <f>IF(ISBLANK(E65),"",C65)</f>
         <v/>
       </c>
-      <c r="E63" s="26"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="27"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/activity/SIGE_P1.xlsx
+++ b/activity/SIGE_P1.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A1AD30-2FD5-4655-9B16-D1E7E1426F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BB8657-BC74-47A3-A185-77A8CF0E25B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'P1'!$B$1:$D$65</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'P1'!$1:$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>Componente / Actividad</t>
   </si>
@@ -105,9 +109,6 @@
   </si>
   <si>
     <t>1.1. Historia del municipio</t>
-  </si>
-  <si>
-    <t>Calificación Avance P1 proyecto final</t>
   </si>
   <si>
     <t>1.2. Localización geográfica y topografía</t>
@@ -367,12 +368,18 @@
   <si>
     <t>1.4.5. Otras plataformas que conozca (mínimo una)</t>
   </si>
+  <si>
+    <t>SIGE - Calificación Avance P1 proyecto final</t>
+  </si>
+  <si>
+    <t>https://github.com/rcfdtools/R.SIGE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +423,20 @@
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -431,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -571,11 +592,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -625,12 +691,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -667,8 +727,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -947,13 +1041,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L65"/>
+  <dimension ref="B1:L65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -973,13 +1067,29 @@
     <col min="13" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="1" spans="2:12" s="37" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="2:12" s="37" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="6">
@@ -990,65 +1100,65 @@
         <f>SUM(D5:D65)</f>
         <v>37.75</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="18" t="str">
+      <c r="E3" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="35" t="str">
         <f>_xlfn.CONCAT(SUM(E5:E65)," de ",$D$3, " puntos")</f>
         <v>0 de 37.75 puntos</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="18" t="str">
+      <c r="G3" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="35" t="str">
         <f>_xlfn.CONCAT(SUM(G5:G65)," de ",$D$3, " puntos")</f>
         <v>0 de 37.75 puntos</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="18" t="str">
+      <c r="I3" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="35" t="str">
         <f>_xlfn.CONCAT(SUM(I5:I65)," de ",$D$3, " puntos")</f>
         <v>0 de 37.75 puntos</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="18" t="str">
+      <c r="K3" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="35" t="str">
         <f>_xlfn.CONCAT(SUM(K5:K65)," de ",$D$3, " puntos")</f>
         <v>0 de 37.75 puntos</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="33" x14ac:dyDescent="0.45">
-      <c r="B4" s="30"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1058,18 +1168,18 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="2:12" ht="82.5" x14ac:dyDescent="0.45">
       <c r="B6" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -1077,29 +1187,29 @@
       <c r="D6" s="10">
         <v>3</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="23"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B7" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="22"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="12" t="s">
@@ -1111,18 +1221,18 @@
       <c r="D8" s="10">
         <v>1</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -1130,14 +1240,14 @@
       <c r="D9" s="10">
         <v>1</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="23"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="12" t="s">
@@ -1149,154 +1259,154 @@
       <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="23"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4">
         <v>0.5</v>
       </c>
-      <c r="D12" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="28"/>
+      <c r="D12" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4">
         <v>0.5</v>
       </c>
-      <c r="D13" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="28"/>
+      <c r="D13" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4">
         <v>0.5</v>
       </c>
-      <c r="D14" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="28"/>
+      <c r="D14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4">
         <v>0.5</v>
       </c>
-      <c r="D15" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="28"/>
+      <c r="D15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B16" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="4">
         <v>0.5</v>
       </c>
-      <c r="D16" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="28"/>
+      <c r="D16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="2:12" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B17" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="13" t="s">
@@ -1308,14 +1418,14 @@
       <c r="D19" s="10">
         <v>0.5</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="23"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="13" t="s">
@@ -1327,14 +1437,14 @@
       <c r="D20" s="10">
         <v>0.5</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="28"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="13" t="s">
@@ -1346,14 +1456,14 @@
       <c r="D21" s="10">
         <v>0.5</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="28"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="13" t="s">
@@ -1365,18 +1475,18 @@
       <c r="D22" s="10">
         <v>0.5</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="28"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="4">
         <v>0.5</v>
@@ -1384,18 +1494,18 @@
       <c r="D23" s="10">
         <v>0.5</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="28"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="4">
         <v>0.5</v>
@@ -1403,18 +1513,18 @@
       <c r="D24" s="10">
         <v>0.5</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="28"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" spans="2:12" ht="33" x14ac:dyDescent="0.45">
       <c r="B25" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -1422,18 +1532,18 @@
       <c r="D25" s="10">
         <v>1</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="23"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -1441,18 +1551,18 @@
       <c r="D26" s="10">
         <v>1</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="28"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="26"/>
     </row>
     <row r="27" spans="2:12" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B27" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -1460,33 +1570,33 @@
       <c r="D27" s="10">
         <v>1</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="23"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="2:12" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B28" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="2:12" ht="54.75" x14ac:dyDescent="0.45">
       <c r="B29" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -1494,18 +1604,18 @@
       <c r="D29" s="10">
         <v>1</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="23"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="21"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B30" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="4">
         <v>0.5</v>
@@ -1513,18 +1623,18 @@
       <c r="D30" s="10">
         <v>0.5</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="23"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="21"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B31" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -1532,18 +1642,18 @@
       <c r="D31" s="10">
         <v>1</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="23"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="21"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -1551,18 +1661,18 @@
       <c r="D32" s="10">
         <v>1</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="23"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="21"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B33" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -1570,18 +1680,18 @@
       <c r="D33" s="10">
         <v>1</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="23"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="21"/>
     </row>
     <row r="34" spans="2:12" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B34" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -1589,18 +1699,18 @@
       <c r="D34" s="10">
         <v>1</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B35" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="4">
         <v>0.25</v>
@@ -1608,33 +1718,33 @@
       <c r="D35" s="10">
         <v>0.25</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="22"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="20"/>
     </row>
     <row r="36" spans="2:12" ht="80.25" x14ac:dyDescent="0.45">
       <c r="B36" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="22"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="20"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B37" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1642,18 +1752,18 @@
       <c r="D37" s="10">
         <v>1</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="23"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="21"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B38" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -1661,18 +1771,18 @@
       <c r="D38" s="10">
         <v>1</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="23"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="21"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B39" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="4">
         <v>1</v>
@@ -1680,18 +1790,18 @@
       <c r="D39" s="10">
         <v>1</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="23"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="21"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B40" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="4">
         <v>1</v>
@@ -1699,18 +1809,18 @@
       <c r="D40" s="10">
         <v>1</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="23"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="21"/>
     </row>
     <row r="41" spans="2:12" ht="33" x14ac:dyDescent="0.45">
       <c r="B41" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -1718,18 +1828,18 @@
       <c r="D41" s="10">
         <v>1</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="23"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="21"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B42" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="4">
         <v>0.25</v>
@@ -1737,33 +1847,33 @@
       <c r="D42" s="10">
         <v>0.25</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="23"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="21"/>
     </row>
     <row r="43" spans="2:12" ht="113.25" x14ac:dyDescent="0.45">
       <c r="B43" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="22"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="4">
         <v>2</v>
@@ -1771,18 +1881,18 @@
       <c r="D44" s="10">
         <v>2</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="23"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="21"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B45" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="4">
         <v>2</v>
@@ -1790,18 +1900,18 @@
       <c r="D45" s="10">
         <v>2</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="23"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="21"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B46" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="4">
         <v>2</v>
@@ -1809,18 +1919,18 @@
       <c r="D46" s="10">
         <v>2</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="23"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="21"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B47" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="4">
         <v>0.25</v>
@@ -1828,18 +1938,18 @@
       <c r="D47" s="10">
         <v>0.25</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="22"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="20"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B48" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -1847,14 +1957,14 @@
       <c r="D48" s="10">
         <v>1</v>
       </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="23"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="21"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B49" s="11" t="s">
@@ -1866,18 +1976,18 @@
       <c r="D49" s="10">
         <v>1</v>
       </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="23"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="21"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B50" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -1885,48 +1995,48 @@
       <c r="D50" s="10">
         <v>1</v>
       </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="23"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="21"/>
     </row>
     <row r="51" spans="2:12" ht="93" x14ac:dyDescent="0.45">
       <c r="B51" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G51" s="21"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="22"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="20"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B52" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="10"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" s="21"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="22"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="19"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="20"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B53" s="11" t="s">
@@ -1934,16 +2044,16 @@
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" s="21"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="22"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" s="19"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="20"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B54" s="11" t="s">
@@ -1951,16 +2061,16 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" s="21"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="22"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="19"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="20"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B55" s="11" t="s">
@@ -1968,16 +2078,16 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" s="21"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="22"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="19"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="20"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B56" s="9" t="s">
@@ -1985,50 +2095,50 @@
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" s="21"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="22"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" s="19"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="20"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B57" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G57" s="21"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="22"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G57" s="19"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="20"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B58" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G58" s="21"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="22"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" s="19"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="20"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B59" s="11" t="s">
@@ -2036,16 +2146,16 @@
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G59" s="21"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="22"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G59" s="19"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="20"/>
     </row>
     <row r="60" spans="2:12" ht="33" x14ac:dyDescent="0.45">
       <c r="B60" s="11" t="s">
@@ -2053,16 +2163,16 @@
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="10"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G60" s="21"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="22"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G60" s="19"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="20"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B61" s="9" t="s">
@@ -2070,14 +2180,14 @@
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="22"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="20"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B62" s="11" t="s">
@@ -2089,14 +2199,14 @@
       <c r="D62" s="10">
         <v>1</v>
       </c>
-      <c r="E62" s="21"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="22"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="20"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B63" s="11" t="s">
@@ -2108,14 +2218,14 @@
       <c r="D63" s="10">
         <v>1</v>
       </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="23"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="21"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B64" s="11" t="s">
@@ -2127,33 +2237,37 @@
       <c r="D64" s="10">
         <v>1</v>
       </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="23"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="21"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B65" s="14"/>
       <c r="C65" s="15"/>
       <c r="D65" s="16"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="27"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:B4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{648D05B7-BBA7-4602-8C3B-5AF22F74CAF1}"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/activity/SIGE_P1.xlsx
+++ b/activity/SIGE_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BB8657-BC74-47A3-A185-77A8CF0E25B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19677EB-B30D-4A63-83DD-CF0DDEF5AA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="P1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'P1'!$B$1:$D$65</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'P1'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'P1'!$B$1:$D$66</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'P1'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t>Componente / Actividad</t>
   </si>
@@ -369,17 +369,20 @@
     <t>1.4.5. Otras plataformas que conozca (mínimo una)</t>
   </si>
   <si>
-    <t>SIGE - Calificación Avance P1 proyecto final</t>
-  </si>
-  <si>
     <t>https://github.com/rcfdtools/R.SIGE</t>
+  </si>
+  <si>
+    <t>Curso taller de Sistemas de Información Geográfica aplicados a Ordenamiento Territorial (OT) - SIGE</t>
+  </si>
+  <si>
+    <t>Calificación Avance P1 proyecto final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,8 +435,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
@@ -721,44 +731,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1041,19 +1051,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L65"/>
+  <dimension ref="B1:L66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.73046875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.86328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" customWidth="1"/>
@@ -1067,161 +1077,138 @@
     <col min="13" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="38"/>
-      <c r="D1" s="39" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D1" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B2" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="K1" s="38"/>
-    </row>
-    <row r="2" spans="2:12" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
-        <f>SUM(C5:C65)</f>
+      <c r="C4" s="6">
+        <f>SUM(C6:C66)</f>
         <v>37.75</v>
       </c>
-      <c r="D3" s="7">
-        <f>SUM(D5:D65)</f>
+      <c r="D4" s="7">
+        <f>SUM(D6:D66)</f>
         <v>37.75</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E4" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="35" t="str">
-        <f>_xlfn.CONCAT(SUM(E5:E65)," de ",$D$3, " puntos")</f>
+      <c r="F4" s="33" t="str">
+        <f>_xlfn.CONCAT(SUM(E6:E66)," de ",$D$4, " puntos")</f>
         <v>0 de 37.75 puntos</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="35" t="str">
-        <f>_xlfn.CONCAT(SUM(G5:G65)," de ",$D$3, " puntos")</f>
+      <c r="H4" s="33" t="str">
+        <f>_xlfn.CONCAT(SUM(G6:G66)," de ",$D$4, " puntos")</f>
         <v>0 de 37.75 puntos</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I4" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="35" t="str">
-        <f>_xlfn.CONCAT(SUM(I5:I65)," de ",$D$3, " puntos")</f>
+      <c r="J4" s="33" t="str">
+        <f>_xlfn.CONCAT(SUM(I6:I66)," de ",$D$4, " puntos")</f>
         <v>0 de 37.75 puntos</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K4" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="35" t="str">
-        <f>_xlfn.CONCAT(SUM(K5:K65)," de ",$D$3, " puntos")</f>
+      <c r="L4" s="33" t="str">
+        <f>_xlfn.CONCAT(SUM(K6:K66)," de ",$D$4, " puntos")</f>
         <v>0 de 37.75 puntos</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="33" x14ac:dyDescent="0.45">
-      <c r="B4" s="28"/>
-      <c r="C4" s="3" t="s">
+    <row r="5" spans="2:12" ht="33" x14ac:dyDescent="0.45">
+      <c r="B5" s="36"/>
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L5" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-    </row>
-    <row r="6" spans="2:12" ht="82.5" x14ac:dyDescent="0.45">
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="2:12" ht="82.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="10">
         <v>3</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="21"/>
-    </row>
-    <row r="7" spans="2:12" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B7" s="11" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="2:12" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="30"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="20"/>
       <c r="G8" s="19"/>
       <c r="H8" s="20"/>
@@ -1232,7 +1219,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -1240,18 +1227,18 @@
       <c r="D9" s="10">
         <v>1</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="20"/>
       <c r="G9" s="19"/>
       <c r="H9" s="20"/>
       <c r="I9" s="19"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="21"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="12" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -1259,52 +1246,52 @@
       <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="21"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="22"/>
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="26"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4">
         <v>0.5</v>
@@ -1312,7 +1299,7 @@
       <c r="D13" s="10">
         <v>0.5</v>
       </c>
-      <c r="E13" s="31"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="21"/>
@@ -1323,7 +1310,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4">
         <v>0.5</v>
@@ -1331,7 +1318,7 @@
       <c r="D14" s="10">
         <v>0.5</v>
       </c>
-      <c r="E14" s="31"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
       <c r="H14" s="21"/>
@@ -1342,7 +1329,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4">
         <v>0.5</v>
@@ -1350,7 +1337,7 @@
       <c r="D15" s="10">
         <v>0.5</v>
       </c>
-      <c r="E15" s="31"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="21"/>
@@ -1361,7 +1348,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B16" s="13" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4">
         <v>0.5</v>
@@ -1369,7 +1356,7 @@
       <c r="D16" s="10">
         <v>0.5</v>
       </c>
-      <c r="E16" s="31"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
       <c r="H16" s="21"/>
@@ -1378,28 +1365,32 @@
       <c r="K16" s="23"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="2:12" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="2:12" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B18" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B18" s="12" t="s">
-        <v>29</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="30"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="20"/>
       <c r="G18" s="19"/>
       <c r="H18" s="20"/>
@@ -1409,27 +1400,23 @@
       <c r="L18" s="20"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="30"/>
+      <c r="B19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="20"/>
       <c r="G19" s="19"/>
       <c r="H19" s="20"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="21"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="4">
         <v>0.5</v>
@@ -1437,18 +1424,18 @@
       <c r="D20" s="10">
         <v>0.5</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="26"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="22"/>
-      <c r="L20" s="26"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="4">
         <v>0.5</v>
@@ -1456,7 +1443,7 @@
       <c r="D21" s="10">
         <v>0.5</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="21"/>
       <c r="G21" s="23"/>
       <c r="H21" s="26"/>
@@ -1467,7 +1454,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4">
         <v>0.5</v>
@@ -1475,7 +1462,7 @@
       <c r="D22" s="10">
         <v>0.5</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="21"/>
       <c r="G22" s="23"/>
       <c r="H22" s="26"/>
@@ -1486,7 +1473,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="13" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4">
         <v>0.5</v>
@@ -1494,7 +1481,7 @@
       <c r="D23" s="10">
         <v>0.5</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="21"/>
       <c r="G23" s="23"/>
       <c r="H23" s="26"/>
@@ -1505,7 +1492,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="4">
         <v>0.5</v>
@@ -1513,7 +1500,7 @@
       <c r="D24" s="10">
         <v>0.5</v>
       </c>
-      <c r="E24" s="31"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="21"/>
       <c r="G24" s="23"/>
       <c r="H24" s="26"/>
@@ -1522,28 +1509,28 @@
       <c r="K24" s="22"/>
       <c r="L24" s="26"/>
     </row>
-    <row r="25" spans="2:12" ht="33" x14ac:dyDescent="0.45">
-      <c r="B25" s="12" t="s">
-        <v>30</v>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C25" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="29"/>
       <c r="F25" s="21"/>
       <c r="G25" s="23"/>
       <c r="H25" s="26"/>
       <c r="I25" s="23"/>
       <c r="J25" s="26"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="21"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="L25" s="26"/>
+    </row>
+    <row r="26" spans="2:12" ht="33" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -1551,80 +1538,80 @@
       <c r="D26" s="10">
         <v>1</v>
       </c>
-      <c r="E26" s="31"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="21"/>
       <c r="G26" s="23"/>
       <c r="H26" s="26"/>
       <c r="I26" s="23"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="26"/>
-    </row>
-    <row r="27" spans="2:12" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="K26" s="22"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="26"/>
+    </row>
+    <row r="28" spans="2:12" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B28" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="21"/>
-    </row>
-    <row r="28" spans="2:12" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="21"/>
+    </row>
+    <row r="29" spans="2:12" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B29" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="20"/>
-    </row>
-    <row r="29" spans="2:12" ht="54.75" x14ac:dyDescent="0.45">
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="2:12" ht="54.75" x14ac:dyDescent="0.45">
+      <c r="B30" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="21"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B30" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="C30" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D30" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="22"/>
       <c r="H30" s="21"/>
       <c r="I30" s="22"/>
@@ -1634,16 +1621,16 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B31" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="22"/>
       <c r="H31" s="21"/>
       <c r="I31" s="22"/>
@@ -1653,7 +1640,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -1661,9 +1648,9 @@
       <c r="D32" s="10">
         <v>1</v>
       </c>
-      <c r="E32" s="32"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="23"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="21"/>
       <c r="I32" s="22"/>
       <c r="J32" s="21"/>
@@ -1672,7 +1659,7 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B33" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -1680,45 +1667,45 @@
       <c r="D33" s="10">
         <v>1</v>
       </c>
-      <c r="E33" s="31"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+      <c r="G33" s="23"/>
       <c r="H33" s="21"/>
       <c r="I33" s="22"/>
       <c r="J33" s="21"/>
       <c r="K33" s="22"/>
       <c r="L33" s="21"/>
     </row>
-    <row r="34" spans="2:12" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B34" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10">
+        <v>1</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="21"/>
+    </row>
+    <row r="35" spans="2:12" ht="58.5" x14ac:dyDescent="0.45">
+      <c r="B35" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="4">
-        <v>1</v>
-      </c>
-      <c r="D34" s="10">
-        <v>1</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B35" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="C35" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D35" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="E35" s="30"/>
+        <v>1</v>
+      </c>
+      <c r="E35" s="28"/>
       <c r="F35" s="20"/>
       <c r="G35" s="19"/>
       <c r="H35" s="20"/>
@@ -1727,13 +1714,17 @@
       <c r="K35" s="19"/>
       <c r="L35" s="20"/>
     </row>
-    <row r="36" spans="2:12" ht="80.25" x14ac:dyDescent="0.45">
-      <c r="B36" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="30"/>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B36" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E36" s="28"/>
       <c r="F36" s="20"/>
       <c r="G36" s="19"/>
       <c r="H36" s="20"/>
@@ -1742,28 +1733,24 @@
       <c r="K36" s="19"/>
       <c r="L36" s="20"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B37" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="4">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10">
-        <v>1</v>
-      </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="21"/>
+    <row r="37" spans="2:12" ht="80.25" x14ac:dyDescent="0.45">
+      <c r="B37" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="20"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B38" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -1771,7 +1758,7 @@
       <c r="D38" s="10">
         <v>1</v>
       </c>
-      <c r="E38" s="31"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="21"/>
       <c r="G38" s="22"/>
       <c r="H38" s="21"/>
@@ -1782,7 +1769,7 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B39" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="4">
         <v>1</v>
@@ -1790,7 +1777,7 @@
       <c r="D39" s="10">
         <v>1</v>
       </c>
-      <c r="E39" s="31"/>
+      <c r="E39" s="29"/>
       <c r="F39" s="21"/>
       <c r="G39" s="22"/>
       <c r="H39" s="21"/>
@@ -1801,7 +1788,7 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B40" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="4">
         <v>1</v>
@@ -1809,7 +1796,7 @@
       <c r="D40" s="10">
         <v>1</v>
       </c>
-      <c r="E40" s="31"/>
+      <c r="E40" s="29"/>
       <c r="F40" s="21"/>
       <c r="G40" s="22"/>
       <c r="H40" s="21"/>
@@ -1818,9 +1805,9 @@
       <c r="K40" s="22"/>
       <c r="L40" s="21"/>
     </row>
-    <row r="41" spans="2:12" ht="33" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B41" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -1828,7 +1815,7 @@
       <c r="D41" s="10">
         <v>1</v>
       </c>
-      <c r="E41" s="31"/>
+      <c r="E41" s="29"/>
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
       <c r="H41" s="21"/>
@@ -1839,15 +1826,15 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B42" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C42" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D42" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="E42" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="29"/>
       <c r="F42" s="21"/>
       <c r="G42" s="22"/>
       <c r="H42" s="21"/>
@@ -1856,43 +1843,43 @@
       <c r="K42" s="22"/>
       <c r="L42" s="21"/>
     </row>
-    <row r="43" spans="2:12" ht="113.25" x14ac:dyDescent="0.45">
-      <c r="B43" s="11" t="s">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B43" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E43" s="29"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="21"/>
+    </row>
+    <row r="44" spans="2:12" ht="100.5" x14ac:dyDescent="0.45">
+      <c r="B44" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="20"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B44" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="4">
-        <v>2</v>
-      </c>
-      <c r="D44" s="10">
-        <v>2</v>
-      </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="21"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B45" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="4">
         <v>2</v>
@@ -1900,7 +1887,7 @@
       <c r="D45" s="10">
         <v>2</v>
       </c>
-      <c r="E45" s="31"/>
+      <c r="E45" s="29"/>
       <c r="F45" s="21"/>
       <c r="G45" s="22"/>
       <c r="H45" s="21"/>
@@ -1911,7 +1898,7 @@
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B46" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="4">
         <v>2</v>
@@ -1919,7 +1906,7 @@
       <c r="D46" s="10">
         <v>2</v>
       </c>
-      <c r="E46" s="31"/>
+      <c r="E46" s="29"/>
       <c r="F46" s="21"/>
       <c r="G46" s="22"/>
       <c r="H46" s="21"/>
@@ -1930,45 +1917,45 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B47" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2</v>
+      </c>
+      <c r="D47" s="10">
+        <v>2</v>
+      </c>
+      <c r="E47" s="29"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="21"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B48" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C48" s="4">
         <v>0.25</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D48" s="10">
         <v>0.25</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="20"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B48" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="4">
-        <v>1</v>
-      </c>
-      <c r="D48" s="10">
-        <v>1</v>
-      </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="21"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="20"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B49" s="11" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -1976,18 +1963,18 @@
       <c r="D49" s="10">
         <v>1</v>
       </c>
-      <c r="E49" s="31"/>
+      <c r="E49" s="29"/>
       <c r="F49" s="21"/>
       <c r="G49" s="22"/>
       <c r="H49" s="21"/>
-      <c r="I49" s="23"/>
+      <c r="I49" s="22"/>
       <c r="J49" s="21"/>
       <c r="K49" s="22"/>
       <c r="L49" s="21"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B50" s="11" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -1995,7 +1982,7 @@
       <c r="D50" s="10">
         <v>1</v>
       </c>
-      <c r="E50" s="31"/>
+      <c r="E50" s="29"/>
       <c r="F50" s="21"/>
       <c r="G50" s="22"/>
       <c r="H50" s="21"/>
@@ -2004,30 +1991,32 @@
       <c r="K50" s="22"/>
       <c r="L50" s="21"/>
     </row>
-    <row r="51" spans="2:12" ht="93" x14ac:dyDescent="0.45">
-      <c r="B51" s="9" t="s">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B51" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="10">
+        <v>1</v>
+      </c>
+      <c r="E51" s="29"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="21"/>
+    </row>
+    <row r="52" spans="2:12" ht="93" x14ac:dyDescent="0.45">
+      <c r="B52" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="20"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="4"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="10"/>
-      <c r="E52" s="30"/>
+      <c r="E52" s="28"/>
       <c r="F52" s="20" t="s">
         <v>66</v>
       </c>
@@ -2040,11 +2029,11 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B53" s="11" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="30"/>
+      <c r="E53" s="28"/>
       <c r="F53" s="20" t="s">
         <v>66</v>
       </c>
@@ -2057,11 +2046,11 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B54" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="30"/>
+      <c r="E54" s="28"/>
       <c r="F54" s="20" t="s">
         <v>66</v>
       </c>
@@ -2074,11 +2063,11 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B55" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="30"/>
+      <c r="E55" s="28"/>
       <c r="F55" s="20" t="s">
         <v>66</v>
       </c>
@@ -2090,14 +2079,14 @@
       <c r="L55" s="20"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B56" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="5"/>
+      <c r="B56" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="4"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="30"/>
+      <c r="E56" s="28"/>
       <c r="F56" s="20" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G56" s="19"/>
       <c r="H56" s="20"/>
@@ -2107,12 +2096,12 @@
       <c r="L56" s="20"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B57" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="4"/>
+      <c r="B57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="5"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="30"/>
+      <c r="E57" s="28"/>
       <c r="F57" s="20" t="s">
         <v>60</v>
       </c>
@@ -2124,12 +2113,12 @@
       <c r="L57" s="20"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B58" s="13" t="s">
-        <v>59</v>
+      <c r="B58" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="30"/>
+      <c r="E58" s="28"/>
       <c r="F58" s="20" t="s">
         <v>60</v>
       </c>
@@ -2141,12 +2130,12 @@
       <c r="L58" s="20"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B59" s="11" t="s">
-        <v>14</v>
+      <c r="B59" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="30"/>
+      <c r="E59" s="28"/>
       <c r="F59" s="20" t="s">
         <v>60</v>
       </c>
@@ -2157,13 +2146,13 @@
       <c r="K59" s="19"/>
       <c r="L59" s="20"/>
     </row>
-    <row r="60" spans="2:12" ht="33" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B60" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="10"/>
-      <c r="E60" s="30"/>
+      <c r="E60" s="28"/>
       <c r="F60" s="20" t="s">
         <v>60</v>
       </c>
@@ -2174,14 +2163,16 @@
       <c r="K60" s="19"/>
       <c r="L60" s="20"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B61" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="5"/>
+    <row r="61" spans="2:12" ht="33" x14ac:dyDescent="0.45">
+      <c r="B61" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="4"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="20"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="G61" s="19"/>
       <c r="H61" s="20"/>
       <c r="I61" s="19"/>
@@ -2190,16 +2181,12 @@
       <c r="L61" s="20"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B62" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="4">
-        <v>1</v>
-      </c>
-      <c r="D62" s="10">
-        <v>1</v>
-      </c>
-      <c r="E62" s="30"/>
+      <c r="B62" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="28"/>
       <c r="F62" s="20"/>
       <c r="G62" s="19"/>
       <c r="H62" s="20"/>
@@ -2210,7 +2197,7 @@
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B63" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C63" s="4">
         <v>1</v>
@@ -2218,18 +2205,18 @@
       <c r="D63" s="10">
         <v>1</v>
       </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="21"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="20"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B64" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C64" s="4">
         <v>1</v>
@@ -2237,7 +2224,7 @@
       <c r="D64" s="10">
         <v>1</v>
       </c>
-      <c r="E64" s="31"/>
+      <c r="E64" s="29"/>
       <c r="F64" s="21"/>
       <c r="G64" s="22"/>
       <c r="H64" s="21"/>
@@ -2247,21 +2234,41 @@
       <c r="L64" s="21"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B65" s="14"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="25"/>
+      <c r="B65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="10">
+        <v>1</v>
+      </c>
+      <c r="E65" s="29"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="21"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B66" s="14"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:B4"/>
+  <mergeCells count="2">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{648D05B7-BBA7-4602-8C3B-5AF22F74CAF1}"/>

--- a/activity/SIGE_P1.xlsx
+++ b/activity/SIGE_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19677EB-B30D-4A63-83DD-CF0DDEF5AA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248802D6-287E-4613-AC7B-928F94E06D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="P1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'P1'!$B$1:$D$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'P1'!$B$1:$D$63</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'P1'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>Componente / Actividad</t>
   </si>
@@ -244,64 +244,6 @@
         <family val="2"/>
       </rPr>
       <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/Population/Readme.md</t>
-    </r>
-  </si>
-  <si>
-    <t>5.1. Capas y tablas utilizadas en el diagnóstico</t>
-  </si>
-  <si>
-    <t>5.2. Capas utilizadas en la formulación</t>
-  </si>
-  <si>
-    <t>5.3. Sistema de proyección y elementos cartográficos</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. Inventario de información geo-espacial recopilada del POT y diccionario de datos
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/POTLayer/Readme.md</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Para su caso de estudio, descargue, descomprima y organice los diferentes datos (vectores, tablas, grillas) utilizados en la elaboración del POT. Revise todos los elementos y en el libro de Excel suministrado, registre los datos indicados en esta actividad. En el informe final y siguiendo el mismo orden de esta actividad, incluya tablas resumen y previsualizaciones de cada elemento.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">B. Diccionario de datos (opcional)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Implemente el diccionario de datos de proyecto incluyendo todos los elementos geo-espaciales recopilados. Aunque su presentación no es obligatoria en el desarrollo de este curso, se recomienda su implementación y permanente actualización incluyendo todas las capas, tablas y grillas que iremos produciendo a lo largo del curso. En el caso particular de estudiantes que vayan a implementar o fortalecer el sistema de información geográfica de su municipio, se recomienda mantener y publicar las actualizaciones realizadas al diccionario.</t>
     </r>
   </si>
   <si>
@@ -327,30 +269,9 @@
     <t>Libro POT_Cartografia.xlsx almacenado en carpeta \table</t>
   </si>
   <si>
-    <t>Libro POT_Layer.xlsx  almacenado en carpeta \table</t>
-  </si>
-  <si>
-    <t>Libro DiccionarioDatos.xlsx almacenado en carpeta \table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1-01: xxxx </t>
-  </si>
-  <si>
     <t>No requerido en esta entrega</t>
   </si>
   <si>
-    <t>Grupo 001</t>
-  </si>
-  <si>
-    <t>Grupo 002</t>
-  </si>
-  <si>
-    <t>Grupo 003</t>
-  </si>
-  <si>
-    <t>Grupo 004</t>
-  </si>
-  <si>
     <t>Libro  Excel POT_ZonaEstudio.xlsx almacenado en carpeta \table</t>
   </si>
   <si>
@@ -363,9 +284,6 @@
     <t>Conclusiones</t>
   </si>
   <si>
-    <t>Generales: portada (indicando el caso de estudio, número de avance, nombre del módulo, fecha de presentación, nombres completos de los integrantes), numeración de páginas, tabla de contenido, lista de tablas, lista de ilustraciones, introducción, objetivo general, capítulos por cada ítem solicitado.</t>
-  </si>
-  <si>
     <t>1.4.5. Otras plataformas que conozca (mínimo una)</t>
   </si>
   <si>
@@ -375,7 +293,73 @@
     <t>Curso taller de Sistemas de Información Geográfica aplicados a Ordenamiento Territorial (OT) - SIGE</t>
   </si>
   <si>
-    <t>Calificación Avance P1 proyecto final</t>
+    <t>Descripción de actividades desarrolladas por cada estudiante</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generales: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>portada (indicando el caso de estudio, número de avance, nombre del módulo, fecha de presentación, nombres completos de los integrantes), numeración de páginas, tabla de contenido, lista de tablas, lista de ilustraciones, introducción, objetivo general, capítulos por cada ítem solicitado.</t>
+    </r>
+  </si>
+  <si>
+    <t>Calificación Avance P1 - Proyecto final</t>
+  </si>
+  <si>
+    <t>Grupo XXX</t>
+  </si>
+  <si>
+    <t>P1-01: (no requeridos en esta entrega)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Libro DiccionarioDatos.xlsx almacenado en carpeta \table </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>(opcional)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B. Tabla resumen (requerido) y Diccionario de datos (opcional)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Implemente el diccionario de datos de proyecto incluyendo todos los elementos geo-espaciales recopilados. Aunque su presentación no es obligatoria en el desarrollo de este curso, se recomienda su implementación y permanente actualización incluyendo todas las capas, tablas y grillas que iremos produciendo a lo largo del curso. En el caso particular de estudiantes que vayan a implementar o fortalecer el sistema de información geográfica de su municipio, se recomienda mantener y publicar las actualizaciones realizadas al diccionario. La presentación de la tabla resumen es requerida y calificable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Libro POT_Layer.xlsx almacenado en carpeta \table </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Tabla resumen con información geo-espacial recopilada. Requerido e incluído como Anexo y embebido en el informe principal)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -462,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -602,56 +586,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -728,44 +668,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1051,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L66"/>
+  <dimension ref="B1:F63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1068,124 +987,73 @@
     <col min="4" max="4" width="10.86328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" customWidth="1"/>
     <col min="6" max="6" width="55.265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="8" width="55.265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="10" width="55.265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="2" customWidth="1"/>
-    <col min="12" max="12" width="55.265625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1328125" style="1"/>
+    <col min="7" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="D1" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B2" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B3" s="37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B4" s="35" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D1" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <f>SUM(C6:C66)</f>
-        <v>37.75</v>
+        <f>SUM(C6:C63)</f>
+        <v>32.5</v>
       </c>
       <c r="D4" s="7">
-        <f>SUM(D6:D66)</f>
-        <v>37.75</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="33" t="str">
-        <f>_xlfn.CONCAT(SUM(E6:E66)," de ",$D$4, " puntos")</f>
-        <v>0 de 37.75 puntos</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="33" t="str">
-        <f>_xlfn.CONCAT(SUM(G6:G66)," de ",$D$4, " puntos")</f>
-        <v>0 de 37.75 puntos</v>
-      </c>
-      <c r="I4" s="34" t="s">
+        <f>SUM(D6:D63)</f>
+        <v>32.5</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="33" t="str">
-        <f>_xlfn.CONCAT(SUM(I6:I66)," de ",$D$4, " puntos")</f>
-        <v>0 de 37.75 puntos</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="33" t="str">
-        <f>_xlfn.CONCAT(SUM(K6:K66)," de ",$D$4, " puntos")</f>
-        <v>0 de 37.75 puntos</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="33" x14ac:dyDescent="0.45">
-      <c r="B5" s="36"/>
+      <c r="F4" s="29" t="str">
+        <f>_xlfn.CONCAT(SUM(E6:E63)," de ",$D$4, " puntos")</f>
+        <v>0 de 32.5 puntos</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B5" s="31"/>
       <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="28"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
-    </row>
-    <row r="7" spans="2:12" ht="82.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B7" s="11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -1193,31 +1061,19 @@
       <c r="D7" s="10">
         <v>3</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21"/>
-    </row>
-    <row r="8" spans="2:12" ht="29.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B8" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="28"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
         <v>22</v>
       </c>
@@ -1227,16 +1083,10 @@
       <c r="D9" s="10">
         <v>1</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="12" t="s">
         <v>23</v>
       </c>
@@ -1246,16 +1096,10 @@
       <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="21"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
         <v>6</v>
       </c>
@@ -1265,31 +1109,19 @@
       <c r="D11" s="10">
         <v>1</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="21"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="28"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" s="13" t="s">
         <v>25</v>
       </c>
@@ -1299,16 +1131,10 @@
       <c r="D13" s="10">
         <v>0.5</v>
       </c>
-      <c r="E13" s="29"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14" s="13" t="s">
         <v>26</v>
       </c>
@@ -1318,16 +1144,10 @@
       <c r="D14" s="10">
         <v>0.5</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" s="13" t="s">
         <v>27</v>
       </c>
@@ -1337,16 +1157,10 @@
       <c r="D15" s="10">
         <v>0.5</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="26"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="13" t="s">
         <v>28</v>
       </c>
@@ -1356,18 +1170,12 @@
       <c r="D16" s="10">
         <v>0.5</v>
       </c>
-      <c r="E16" s="29"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="26"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="13" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C17" s="4">
         <v>0.5</v>
@@ -1375,46 +1183,28 @@
       <c r="D17" s="10">
         <v>0.5</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" spans="2:12" ht="29.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B18" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="28"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="28"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="20"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="13" t="s">
         <v>7</v>
       </c>
@@ -1424,16 +1214,10 @@
       <c r="D20" s="10">
         <v>0.5</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="21"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="13" t="s">
         <v>8</v>
       </c>
@@ -1443,16 +1227,10 @@
       <c r="D21" s="10">
         <v>0.5</v>
       </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="13" t="s">
         <v>9</v>
       </c>
@@ -1462,16 +1240,10 @@
       <c r="D22" s="10">
         <v>0.5</v>
       </c>
-      <c r="E22" s="29"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="26"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="13" t="s">
         <v>10</v>
       </c>
@@ -1481,16 +1253,10 @@
       <c r="D23" s="10">
         <v>0.5</v>
       </c>
-      <c r="E23" s="29"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="26"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="13" t="s">
         <v>34</v>
       </c>
@@ -1500,16 +1266,10 @@
       <c r="D24" s="10">
         <v>0.5</v>
       </c>
-      <c r="E24" s="29"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="26"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="13" t="s">
         <v>33</v>
       </c>
@@ -1519,16 +1279,10 @@
       <c r="D25" s="10">
         <v>0.5</v>
       </c>
-      <c r="E25" s="29"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="26"/>
-    </row>
-    <row r="26" spans="2:12" ht="33" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
         <v>30</v>
       </c>
@@ -1538,16 +1292,10 @@
       <c r="D26" s="10">
         <v>1</v>
       </c>
-      <c r="E26" s="29"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="12" t="s">
         <v>31</v>
       </c>
@@ -1557,16 +1305,10 @@
       <c r="D27" s="10">
         <v>1</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="26"/>
-    </row>
-    <row r="28" spans="2:12" ht="49.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B28" s="12" t="s">
         <v>32</v>
       </c>
@@ -1576,31 +1318,19 @@
       <c r="D28" s="10">
         <v>1</v>
       </c>
-      <c r="E28" s="29"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="21"/>
-    </row>
-    <row r="29" spans="2:12" ht="29.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B29" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="28"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="20"/>
-    </row>
-    <row r="30" spans="2:12" ht="54.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B30" s="12" t="s">
         <v>39</v>
       </c>
@@ -1610,16 +1340,10 @@
       <c r="D30" s="10">
         <v>1</v>
       </c>
-      <c r="E30" s="29"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="21"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="12" t="s">
         <v>35</v>
       </c>
@@ -1629,16 +1353,10 @@
       <c r="D31" s="10">
         <v>0.5</v>
       </c>
-      <c r="E31" s="28"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="21"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="12" t="s">
         <v>36</v>
       </c>
@@ -1648,16 +1366,10 @@
       <c r="D32" s="10">
         <v>1</v>
       </c>
-      <c r="E32" s="29"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="12" t="s">
         <v>37</v>
       </c>
@@ -1667,16 +1379,10 @@
       <c r="D33" s="10">
         <v>1</v>
       </c>
-      <c r="E33" s="30"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="21"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="12" t="s">
         <v>38</v>
       </c>
@@ -1686,16 +1392,10 @@
       <c r="D34" s="10">
         <v>1</v>
       </c>
-      <c r="E34" s="29"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="21"/>
-    </row>
-    <row r="35" spans="2:12" ht="58.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="2:6" ht="54.75" x14ac:dyDescent="0.45">
       <c r="B35" s="12" t="s">
         <v>40</v>
       </c>
@@ -1705,18 +1405,12 @@
       <c r="D35" s="10">
         <v>1</v>
       </c>
-      <c r="E35" s="28"/>
+      <c r="E35" s="19"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="20"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C36" s="4">
         <v>0.25</v>
@@ -1724,31 +1418,19 @@
       <c r="D36" s="10">
         <v>0.25</v>
       </c>
-      <c r="E36" s="28"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="20"/>
-    </row>
-    <row r="37" spans="2:12" ht="80.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="2:6" ht="80.25" x14ac:dyDescent="0.45">
       <c r="B37" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="28"/>
+      <c r="E37" s="19"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="20"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38" s="12" t="s">
         <v>41</v>
       </c>
@@ -1758,16 +1440,10 @@
       <c r="D38" s="10">
         <v>1</v>
       </c>
-      <c r="E38" s="29"/>
+      <c r="E38" s="22"/>
       <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="21"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B39" s="12" t="s">
         <v>42</v>
       </c>
@@ -1777,16 +1453,10 @@
       <c r="D39" s="10">
         <v>1</v>
       </c>
-      <c r="E39" s="29"/>
+      <c r="E39" s="22"/>
       <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="21"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B40" s="12" t="s">
         <v>43</v>
       </c>
@@ -1796,16 +1466,10 @@
       <c r="D40" s="10">
         <v>1</v>
       </c>
-      <c r="E40" s="29"/>
+      <c r="E40" s="22"/>
       <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="21"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B41" s="12" t="s">
         <v>44</v>
       </c>
@@ -1815,16 +1479,10 @@
       <c r="D41" s="10">
         <v>1</v>
       </c>
-      <c r="E41" s="29"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="21"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B42" s="12" t="s">
         <v>45</v>
       </c>
@@ -1834,18 +1492,12 @@
       <c r="D42" s="10">
         <v>1</v>
       </c>
-      <c r="E42" s="29"/>
+      <c r="E42" s="22"/>
       <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="21"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B43" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C43" s="4">
         <v>0.25</v>
@@ -1853,417 +1505,234 @@
       <c r="D43" s="10">
         <v>0.25</v>
       </c>
-      <c r="E43" s="29"/>
+      <c r="E43" s="22"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="21"/>
-    </row>
-    <row r="44" spans="2:12" ht="100.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B44" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="20"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B45" s="12" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10">
+        <v>1</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B45" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="10">
-        <v>2</v>
-      </c>
-      <c r="E45" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="22"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="21"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B46" s="12" t="s">
-        <v>50</v>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B46" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="C46" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="10">
-        <v>2</v>
-      </c>
-      <c r="E46" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="22"/>
       <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="21"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B47" s="12" t="s">
-        <v>51</v>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B47" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C47" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="10">
-        <v>2</v>
-      </c>
-      <c r="E47" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="22"/>
       <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="21"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B48" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D48" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="E48" s="28"/>
+    </row>
+    <row r="48" spans="2:6" ht="93" x14ac:dyDescent="0.45">
+      <c r="B48" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="19"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="20"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="49" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B49" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="4">
-        <v>1</v>
-      </c>
-      <c r="D49" s="10">
-        <v>1</v>
-      </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="21"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C49" s="4"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B50" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="4">
-        <v>1</v>
-      </c>
-      <c r="D50" s="10">
-        <v>1</v>
-      </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="21"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B51" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="4">
-        <v>1</v>
-      </c>
-      <c r="D51" s="10">
-        <v>1</v>
-      </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="21"/>
-    </row>
-    <row r="52" spans="2:12" ht="93" x14ac:dyDescent="0.45">
-      <c r="B52" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B52" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="4"/>
       <c r="D52" s="10"/>
-      <c r="E52" s="28"/>
+      <c r="E52" s="19"/>
       <c r="F52" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="20"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B53" s="11" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="28"/>
+      <c r="E53" s="19"/>
       <c r="F53" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G53" s="19"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="20"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B54" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B54" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="5"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="28"/>
+      <c r="E54" s="19"/>
       <c r="F54" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="20"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B55" s="11" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="28"/>
+      <c r="E55" s="19"/>
       <c r="F55" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G55" s="19"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="20"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B56" s="11" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B56" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="28"/>
+      <c r="E56" s="19"/>
       <c r="F56" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="20"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B57" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B57" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="4"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="28"/>
+      <c r="E57" s="19"/>
       <c r="F57" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="20"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B58" s="11" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="28"/>
+      <c r="E58" s="19"/>
       <c r="F58" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G58" s="19"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="20"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B59" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B59" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="5"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G59" s="19"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="20"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="E59" s="19"/>
+      <c r="F59" s="20"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B60" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G60" s="19"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="20"/>
-    </row>
-    <row r="61" spans="2:12" ht="33" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" s="10">
+        <v>1</v>
+      </c>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B61" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G61" s="19"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="20"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B62" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="20"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B63" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="4">
-        <v>1</v>
-      </c>
-      <c r="D63" s="10">
-        <v>1</v>
-      </c>
-      <c r="E63" s="28"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="20"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B64" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="4">
-        <v>1</v>
-      </c>
-      <c r="D64" s="10">
-        <v>1</v>
-      </c>
-      <c r="E64" s="29"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="21"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B65" s="11" t="s">
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10">
+        <v>1</v>
+      </c>
+      <c r="E61" s="22"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="4">
-        <v>1</v>
-      </c>
-      <c r="D65" s="10">
-        <v>1</v>
-      </c>
-      <c r="E65" s="29"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="21"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B66" s="14"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="25"/>
+      <c r="C62" s="4">
+        <v>1</v>
+      </c>
+      <c r="D62" s="10">
+        <v>1</v>
+      </c>
+      <c r="E62" s="22"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/activity/SIGE_P1.xlsx
+++ b/activity/SIGE_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248802D6-287E-4613-AC7B-928F94E06D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E267CC20-4218-4DEC-8C23-D81AA58264C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,8 +202,185 @@
     <t>4.5. Mapas disponibles (insertados como imagen en el informe final)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">3. Ordenamiento Territorial de la zona de estudio
+    <t>Mapas almacenados en \report en la carpeta de esta entrega</t>
+  </si>
+  <si>
+    <t>Libro POT_Cartografia.xlsx almacenado en carpeta \table</t>
+  </si>
+  <si>
+    <t>No requerido en esta entrega</t>
+  </si>
+  <si>
+    <t>Libro  Excel POT_ZonaEstudio.xlsx almacenado en carpeta \table</t>
+  </si>
+  <si>
+    <t>Presentación opcional</t>
+  </si>
+  <si>
+    <t>Listado de anexos y anexos embebidos en reporte final integrado</t>
+  </si>
+  <si>
+    <t>Conclusiones</t>
+  </si>
+  <si>
+    <t>1.4.5. Otras plataformas que conozca (mínimo una)</t>
+  </si>
+  <si>
+    <t>https://github.com/rcfdtools/R.SIGE</t>
+  </si>
+  <si>
+    <t>Curso taller de Sistemas de Información Geográfica aplicados a Ordenamiento Territorial (OT) - SIGE</t>
+  </si>
+  <si>
+    <t>Descripción de actividades desarrolladas por cada estudiante</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generales: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>portada (indicando el caso de estudio, número de avance, nombre del módulo, fecha de presentación, nombres completos de los integrantes), numeración de páginas, tabla de contenido, lista de tablas, lista de ilustraciones, introducción, objetivo general, capítulos por cada ítem solicitado.</t>
+    </r>
+  </si>
+  <si>
+    <t>Calificación Avance P1 - Proyecto final</t>
+  </si>
+  <si>
+    <t>Grupo XXX</t>
+  </si>
+  <si>
+    <t>P1-01: (no requeridos en esta entrega)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Libro DiccionarioDatos.xlsx almacenado en carpeta \table </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>(opcional)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B. Tabla resumen (requerido) y Diccionario de datos (opcional)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Implemente el diccionario de datos de proyecto incluyendo todos los elementos geo-espaciales recopilados. Aunque su presentación no es obligatoria en el desarrollo de este curso, se recomienda su implementación y permanente actualización incluyendo todas las capas, tablas y grillas que iremos produciendo a lo largo del curso. En el caso particular de estudiantes que vayan a implementar o fortalecer el sistema de información geográfica de su municipio, se recomienda mantener y publicar las actualizaciones realizadas al diccionario. La presentación de la tabla resumen es requerida y calificable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Libro POT_Layer.xlsx almacenado en carpeta \table </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Tabla resumen con información geo-espacial recopilada. Requerido e incluído como Anexo y embebido en el informe principal)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. Reseña histórica y geográfica municipal del caso de estudio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/StudyCaseHistory/Readme.md</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>2. Estudio poblacional: censos y proyecciones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/Population/Readme.md</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>3. Ordenamiento Territorial de la zona de estudio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -218,40 +395,23 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. Reseña histórica y geográfica municipal del caso de estudio
-</t>
-    </r>
-    <r>
       <rPr>
-        <sz val="8"/>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Light"/>
         <family val="2"/>
       </rPr>
-      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/StudyCaseHistory/Readme.md</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. Estudio poblacional: censos y proyecciones
-</t>
+      <t>4. Revisión de cartografía impresa digitalmente</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Light"/>
         <family val="2"/>
       </rPr>
-      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/Population/Readme.md</t>
-    </r>
-  </si>
-  <si>
-    <t>Mapas almacenados en \report en la carpeta de esta entrega</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. Revisión de cartografía impresa digitalmente
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -263,102 +423,6 @@
       </rPr>
       <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/POTCartography/Readme.md
 Utilizando el libro POT_Cartografia.xlsx suministrado, revise y verifique todos los atributos indicados, en caso de encontrar inconsciencias, errores o ilegibilidad, registre estas anotaciones en la columna de observaciones. Incluya tablas dentro del documento del informe de avance siguiendo la misma estructura y secuencia presentadas en esta actividad.</t>
-    </r>
-  </si>
-  <si>
-    <t>Libro POT_Cartografia.xlsx almacenado en carpeta \table</t>
-  </si>
-  <si>
-    <t>No requerido en esta entrega</t>
-  </si>
-  <si>
-    <t>Libro  Excel POT_ZonaEstudio.xlsx almacenado en carpeta \table</t>
-  </si>
-  <si>
-    <t>Presentación opcional</t>
-  </si>
-  <si>
-    <t>Listado de anexos y anexos embebidos en reporte final integrado</t>
-  </si>
-  <si>
-    <t>Conclusiones</t>
-  </si>
-  <si>
-    <t>1.4.5. Otras plataformas que conozca (mínimo una)</t>
-  </si>
-  <si>
-    <t>https://github.com/rcfdtools/R.SIGE</t>
-  </si>
-  <si>
-    <t>Curso taller de Sistemas de Información Geográfica aplicados a Ordenamiento Territorial (OT) - SIGE</t>
-  </si>
-  <si>
-    <t>Descripción de actividades desarrolladas por cada estudiante</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Generales: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>portada (indicando el caso de estudio, número de avance, nombre del módulo, fecha de presentación, nombres completos de los integrantes), numeración de páginas, tabla de contenido, lista de tablas, lista de ilustraciones, introducción, objetivo general, capítulos por cada ítem solicitado.</t>
-    </r>
-  </si>
-  <si>
-    <t>Calificación Avance P1 - Proyecto final</t>
-  </si>
-  <si>
-    <t>Grupo XXX</t>
-  </si>
-  <si>
-    <t>P1-01: (no requeridos en esta entrega)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Libro DiccionarioDatos.xlsx almacenado en carpeta \table </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>(opcional)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">B. Tabla resumen (requerido) y Diccionario de datos (opcional)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Implemente el diccionario de datos de proyecto incluyendo todos los elementos geo-espaciales recopilados. Aunque su presentación no es obligatoria en el desarrollo de este curso, se recomienda su implementación y permanente actualización incluyendo todas las capas, tablas y grillas que iremos produciendo a lo largo del curso. En el caso particular de estudiantes que vayan a implementar o fortalecer el sistema de información geográfica de su municipio, se recomienda mantener y publicar las actualizaciones realizadas al diccionario. La presentación de la tabla resumen es requerida y calificable.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Libro POT_Layer.xlsx almacenado en carpeta \table </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Tabla resumen con información geo-espacial recopilada. Requerido e incluído como Anexo y embebido en el informe principal)</t>
     </r>
   </si>
 </sst>
@@ -973,10 +1037,10 @@
   <dimension ref="B1:F63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -992,19 +1056,19 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D1" s="27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" s="26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
@@ -1020,7 +1084,7 @@
         <v>32.5</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F4" s="29" t="str">
         <f>_xlfn.CONCAT(SUM(E6:E63)," de ",$D$4, " puntos")</f>
@@ -1053,7 +1117,7 @@
     </row>
     <row r="7" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B7" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -1066,7 +1130,7 @@
     </row>
     <row r="8" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B8" s="11" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="10"/>
@@ -1175,7 +1239,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4">
         <v>0.5</v>
@@ -1188,7 +1252,7 @@
     </row>
     <row r="18" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B18" s="11" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="10"/>
@@ -1323,7 +1387,7 @@
     </row>
     <row r="29" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B29" s="11" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="10"/>
@@ -1410,7 +1474,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C36" s="4">
         <v>0.25</v>
@@ -1423,7 +1487,7 @@
     </row>
     <row r="37" spans="2:6" ht="80.25" x14ac:dyDescent="0.45">
       <c r="B37" s="11" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="10"/>
@@ -1497,7 +1561,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B43" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C43" s="4">
         <v>0.25</v>
@@ -1510,7 +1574,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B44" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
@@ -1523,7 +1587,7 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B45" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
@@ -1549,7 +1613,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B47" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -1562,7 +1626,7 @@
     </row>
     <row r="48" spans="2:6" ht="93" x14ac:dyDescent="0.45">
       <c r="B48" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="10"/>
@@ -1571,24 +1635,24 @@
     </row>
     <row r="49" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B49" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="10"/>
       <c r="E49" s="19"/>
       <c r="F49" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B50" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="10"/>
       <c r="E50" s="19"/>
       <c r="F50" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.45">
@@ -1599,7 +1663,7 @@
       <c r="D51" s="10"/>
       <c r="E51" s="19"/>
       <c r="F51" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.45">
@@ -1610,7 +1674,7 @@
       <c r="D52" s="10"/>
       <c r="E52" s="19"/>
       <c r="F52" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.45">
@@ -1621,7 +1685,7 @@
       <c r="D53" s="10"/>
       <c r="E53" s="19"/>
       <c r="F53" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.45">
@@ -1632,29 +1696,29 @@
       <c r="D54" s="10"/>
       <c r="E54" s="19"/>
       <c r="F54" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B55" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="10"/>
       <c r="E55" s="19"/>
       <c r="F55" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B56" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="10"/>
       <c r="E56" s="19"/>
       <c r="F56" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.45">
@@ -1665,7 +1729,7 @@
       <c r="D57" s="10"/>
       <c r="E57" s="19"/>
       <c r="F57" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="33" x14ac:dyDescent="0.45">
@@ -1676,7 +1740,7 @@
       <c r="D58" s="10"/>
       <c r="E58" s="19"/>
       <c r="F58" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.45">

--- a/activity/SIGE_P1.xlsx
+++ b/activity/SIGE_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E267CC20-4218-4DEC-8C23-D81AA58264C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F10A60A-B6CB-4735-BF6F-E8B45A8B19C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1037,16 +1037,16 @@
   <dimension ref="B1:F63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.73046875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.86328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" customWidth="1"/>
@@ -1674,7 +1674,7 @@
       <c r="D52" s="10"/>
       <c r="E52" s="19"/>
       <c r="F52" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.45">
@@ -1685,7 +1685,7 @@
       <c r="D53" s="10"/>
       <c r="E53" s="19"/>
       <c r="F53" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.45">

--- a/activity/SIGE_P1.xlsx
+++ b/activity/SIGE_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F10A60A-B6CB-4735-BF6F-E8B45A8B19C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35839D01-CFC9-4A26-AEA7-6CFF7F1A8BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,9 +202,6 @@
     <t>4.5. Mapas disponibles (insertados como imagen en el informe final)</t>
   </si>
   <si>
-    <t>Mapas almacenados en \report en la carpeta de esta entrega</t>
-  </si>
-  <si>
     <t>Libro POT_Cartografia.xlsx almacenado en carpeta \table</t>
   </si>
   <si>
@@ -424,6 +421,9 @@
       <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/POTCartography/Readme.md
 Utilizando el libro POT_Cartografia.xlsx suministrado, revise y verifique todos los atributos indicados, en caso de encontrar inconsciencias, errores o ilegibilidad, registre estas anotaciones en la columna de observaciones. Incluya tablas dentro del documento del informe de avance siguiendo la misma estructura y secuencia presentadas en esta actividad.</t>
     </r>
+  </si>
+  <si>
+    <t>Mapas almacenados en \report\Anexo en la carpeta de esta entrega</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1040,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1056,19 +1056,19 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D1" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
@@ -1084,7 +1084,7 @@
         <v>32.5</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="29" t="str">
         <f>_xlfn.CONCAT(SUM(E6:E63)," de ",$D$4, " puntos")</f>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="7" spans="2:6" ht="42" x14ac:dyDescent="0.45">
       <c r="B7" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="8" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B8" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="10"/>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="4">
         <v>0.5</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="18" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B18" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="10"/>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="29" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B29" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="10"/>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="4">
         <v>0.25</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="37" spans="2:6" ht="80.25" x14ac:dyDescent="0.45">
       <c r="B37" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="10"/>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B43" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="4">
         <v>0.25</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B44" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B45" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B47" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="48" spans="2:6" ht="93" x14ac:dyDescent="0.45">
       <c r="B48" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="10"/>
@@ -1635,24 +1635,24 @@
     </row>
     <row r="49" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B49" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="10"/>
       <c r="E49" s="19"/>
       <c r="F49" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B50" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="10"/>
       <c r="E50" s="19"/>
       <c r="F50" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.45">
@@ -1663,7 +1663,7 @@
       <c r="D51" s="10"/>
       <c r="E51" s="19"/>
       <c r="F51" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.45">
@@ -1674,7 +1674,7 @@
       <c r="D52" s="10"/>
       <c r="E52" s="19"/>
       <c r="F52" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.45">
@@ -1685,7 +1685,7 @@
       <c r="D53" s="10"/>
       <c r="E53" s="19"/>
       <c r="F53" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.45">
@@ -1696,29 +1696,29 @@
       <c r="D54" s="10"/>
       <c r="E54" s="19"/>
       <c r="F54" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B55" s="11" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="10"/>
       <c r="E55" s="19"/>
       <c r="F55" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B56" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="10"/>
       <c r="E56" s="19"/>
       <c r="F56" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.45">
@@ -1729,7 +1729,7 @@
       <c r="D57" s="10"/>
       <c r="E57" s="19"/>
       <c r="F57" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="33" x14ac:dyDescent="0.45">
@@ -1740,7 +1740,7 @@
       <c r="D58" s="10"/>
       <c r="E58" s="19"/>
       <c r="F58" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.45">

--- a/activity/SIGE_P1.xlsx
+++ b/activity/SIGE_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35839D01-CFC9-4A26-AEA7-6CFF7F1A8BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A42CD4-DE74-48BD-A452-6D1BFC77ABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1807,7 +1807,7 @@
     <hyperlink ref="D1" r:id="rId1" xr:uid="{648D05B7-BBA7-4602-8C3B-5AF22F74CAF1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/activity/SIGE_P1.xlsx
+++ b/activity/SIGE_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A42CD4-DE74-48BD-A452-6D1BFC77ABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157B134F-322F-4D4F-8E93-0C4737D7C314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,9 +246,6 @@
     </r>
   </si>
   <si>
-    <t>Calificación Avance P1 - Proyecto final</t>
-  </si>
-  <si>
     <t>Grupo XXX</t>
   </si>
   <si>
@@ -424,6 +421,10 @@
   </si>
   <si>
     <t>Mapas almacenados en \report\Anexo en la carpeta de esta entrega</t>
+  </si>
+  <si>
+    <t>Calificación Avance P1 - Proyecto final
+Módulo I – Introducción y nivelación de conceptos generales de SIG y OT</t>
   </si>
 </sst>
 </file>
@@ -510,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -650,6 +651,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -732,9 +742,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -752,6 +759,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1040,7 +1050,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1055,24 +1065,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="26" t="s">
-        <v>57</v>
-      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B3" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6">
@@ -1083,16 +1095,16 @@
         <f>SUM(D6:D63)</f>
         <v>32.5</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="29" t="str">
+      <c r="E4" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="28" t="str">
         <f>_xlfn.CONCAT(SUM(E6:E63)," de ",$D$4, " puntos")</f>
         <v>0 de 32.5 puntos</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B5" s="31"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1130,7 +1142,7 @@
     </row>
     <row r="8" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B8" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="10"/>
@@ -1252,7 +1264,7 @@
     </row>
     <row r="18" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B18" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="10"/>
@@ -1387,7 +1399,7 @@
     </row>
     <row r="29" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B29" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="10"/>
@@ -1487,7 +1499,7 @@
     </row>
     <row r="37" spans="2:6" ht="80.25" x14ac:dyDescent="0.45">
       <c r="B37" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="10"/>
@@ -1626,7 +1638,7 @@
     </row>
     <row r="48" spans="2:6" ht="93" x14ac:dyDescent="0.45">
       <c r="B48" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="10"/>
@@ -1635,7 +1647,7 @@
     </row>
     <row r="49" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B49" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="10"/>
@@ -1646,7 +1658,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B50" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="10"/>
@@ -1701,7 +1713,7 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B55" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="10"/>
@@ -1712,7 +1724,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B56" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="10"/>

--- a/activity/SIGE_P1.xlsx
+++ b/activity/SIGE_P1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157B134F-322F-4D4F-8E93-0C4737D7C314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF6F02F-AF0E-4991-B329-3899FABE11EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10808" yWindow="0" windowWidth="8692" windowHeight="8873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,26 @@
     <t>Mapas almacenados en \report\Anexo en la carpeta de esta entrega</t>
   </si>
   <si>
-    <t>Calificación Avance P1 - Proyecto final
-Módulo I – Introducción y nivelación de conceptos generales de SIG y OT</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Módulo I – Introducción y nivelación de conceptos generales de SIG y OT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Calificación Avance P1 - Proyecto final</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -751,6 +769,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -759,9 +780,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1050,7 +1068,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1070,21 +1088,21 @@
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6">
@@ -1104,7 +1122,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
